--- a/biology/Zoologie/Coraciidae/Coraciidae.xlsx
+++ b/biology/Zoologie/Coraciidae/Coraciidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coraciidae (ou coraciidés en français) sont une famille d'oiseaux constituée de 2 genres et de 13 espèces existantes de rolliers et de rolles.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oiseaux de taille moyenne (25 à 40 cm), brillamment colorés. Ils ont un bec court à pointe crochue, des pattes courtes, des ailes de longueur moyenne, et leur queue porte parfois de longues rectrices médianes.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils vivent dans l'Ancien Monde, où ils fréquentent les bois clairs, la savane boisée, les lisières forestières ; quelques espèces vivent dans les forêts pluviales de plaine et leurs abords. Ils apprécient un climat chaud.
 </t>
@@ -573,7 +589,9 @@
           <t>Liste alphabétique des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Coracias (m.) Linnaeus, 1758
 Eurystomus (m.) Vieillot, 1816</t>
@@ -604,7 +622,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 9.2, 2019) du Congrès ornithologique international (ordre phylogénique) :
 Coracias naevius – Rollier varié
